--- a/public/files/Data_By_Towns_Index/Morris/Mount Arlington Borough.xlsx
+++ b/public/files/Data_By_Towns_Index/Morris/Mount Arlington Borough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.9009203</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.6417404</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.8990562</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.64253430000001</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.8972401</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.6466535</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.90283</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.64036369999999</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.8948805</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.64992149999999</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.8974487</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.6474916</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.9082807</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.6404321</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.8948805</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.64992149999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.8970893</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.64431789999999</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.8948805</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.64992149999999</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.9002887</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.6408484</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.8978362</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.6470652</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.902874</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.640339</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.8976811</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.64333139999999</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -828,6 +927,12 @@
         <is>
           <t>Bhatt</t>
         </is>
+      </c>
+      <c r="F16" t="n">
+        <v>40.8972856</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.65050149999999</v>
       </c>
     </row>
   </sheetData>
